--- a/项目需求说明-2016-11-05.xlsx
+++ b/项目需求说明-2016-11-05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8010"/>
+    <workbookView windowWidth="19770" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>需求说明</t>
   </si>
@@ -35,12 +35,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>注</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：本模块在登录时，服务器可完成一个验证功能，主要可验证服务器状态，和简单的恶意攻击验证等</t>
@@ -54,12 +61,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>注1</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：事记为用户私密内容，可追加对用户事记内容的加密功能</t>
@@ -67,12 +81,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>注2</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：为防止用户的失误操作，可追加一个事记回收站的功能，存放用户的删除记录和修改记录</t>
@@ -80,12 +101,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>注3</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：对于回收站可添加一个定时删除的功能，根据回收站内存放内容的类型给予不同存放时间，过了时限后自动删除相应条目，以节约服务器存储空间。</t>
@@ -93,12 +121,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>注4</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：事记可分为多种类型与优先级，用户也可自定义类型</t>
@@ -106,12 +141,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>注5</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：对于优先级，可添加一个手动设置优先级和时效优先级，并可在查询事记时添加一个按优先级显示的功能</t>
@@ -119,12 +161,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>注6</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>：对于即将到期的事记增加相应的优先级，或优先显示在前面，并可给予相应的弹窗提示或颜色区别显示等醒目标识</t>
@@ -150,6 +199,9 @@
   </si>
   <si>
     <t>查询事记功能：主要完成用户对事记的列表浏览需要，展示目前的事记记录</t>
+  </si>
+  <si>
+    <t>Test文字</t>
   </si>
 </sst>
 </file>
@@ -157,12 +209,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,45 +230,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +275,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -238,88 +374,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -331,187 +389,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,20 +583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,6 +618,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,187 +680,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,9 +844,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -797,54 +852,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -855,7 +910,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1109,13 +1164,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="2" t="s">
@@ -1223,7 +1278,7 @@
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1241,54 +1296,54 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="3:14">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1343,6 +1398,11 @@
       </c>
       <c r="C28" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/项目需求说明-2016-11-05.xlsx
+++ b/项目需求说明-2016-11-05.xlsx
@@ -201,7 +201,7 @@
     <t>查询事记功能：主要完成用户对事记的列表浏览需要，展示目前的事记记录</t>
   </si>
   <si>
-    <t>Test文字</t>
+    <t>Test文字fff</t>
   </si>
 </sst>
 </file>
@@ -209,12 +209,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +230,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -238,13 +305,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -252,14 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -282,71 +343,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,20 +359,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -389,187 +395,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +586,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,7 +623,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,9 +645,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,41 +686,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -688,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,130 +709,130 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,8 +1172,8 @@
   <sheetPr/>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/项目需求说明-2016-11-05.xlsx
+++ b/项目需求说明-2016-11-05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>需求说明</t>
   </si>
@@ -200,19 +200,16 @@
   <si>
     <t>查询事记功能：主要完成用户对事记的列表浏览需要，展示目前的事记记录</t>
   </si>
-  <si>
-    <t>Test文字fff</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -227,6 +224,59 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,6 +296,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -254,75 +350,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,44 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -395,13 +392,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,13 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,73 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,67 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +583,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -628,17 +649,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,24 +664,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -694,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +703,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1406,11 +1403,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>

--- a/项目需求说明-2016-11-05.xlsx
+++ b/项目需求说明-2016-11-05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,47 +57,13 @@
     <t>记事本模块</t>
   </si>
   <si>
-    <t>本模块主要完成用户对事记的管理，包括添加事记、修改事记、查询事记</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：事记为用户私密内容，可追加对用户事记内容的加密功能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：为防止用户的失误操作，可追加一个事记回收站的功能，存放用户的删除记录和修改记录</t>
-    </r>
+    <t>本模块主要完成用户对事件的管理，包括添加事件、修改事件、查询事件</t>
+  </si>
+  <si>
+    <t>注1：事件为用户私密内容，可追加对用户事件内容的加密功能</t>
+  </si>
+  <si>
+    <t>注2：为防止用户的失误操作，可追加一个事件回收站的功能，存放用户的删除记录和修改记录</t>
   </si>
   <si>
     <r>
@@ -120,64 +86,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：事记可分为多种类型与优先级，用户也可自定义类型</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：对于优先级，可添加一个手动设置优先级和时效优先级，并可在查询事记时添加一个按优先级显示的功能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：对于即将到期的事记增加相应的优先级，或优先显示在前面，并可给予相应的弹窗提示或颜色区别显示等醒目标识</t>
-    </r>
+    <t>注4：事件可分为多种类型与优先级，用户也可自定义类型</t>
+  </si>
+  <si>
+    <t>注5：对于优先级，可添加一个手动设置优先级和时效优先级，并可在查询事件时添加一个按优先级显示的功能</t>
+  </si>
+  <si>
+    <t>注6：对于即将到期的事件增加相应的优先级，或优先显示在前面，并可给予相应的弹窗提示或颜色区别显示等醒目标识</t>
   </si>
   <si>
     <t>三 功能详细说明</t>
@@ -192,13 +107,13 @@
     <t>注销（退出）功能：主要实现用户的安全退出操作</t>
   </si>
   <si>
-    <t>添加事记功能：添加事记为本项目核心功能，需要实现着重实现</t>
-  </si>
-  <si>
-    <t>修改事记功能：修改主要完成用户对已经添加的事记进行修改的功能，主要有对事记主体内容的修改和删除目前不需要的事记</t>
-  </si>
-  <si>
-    <t>查询事记功能：主要完成用户对事记的列表浏览需要，展示目前的事记记录</t>
+    <t>添加事件功能：添加事件为本项目核心功能，需要实现着重实现</t>
+  </si>
+  <si>
+    <t>修改事件功能：修改主要完成用户对已经添加的事件进行修改的功能，主要有对事件主体内容的修改和删除目前不需要的事件</t>
+  </si>
+  <si>
+    <t>查询事件功能：主要完成用户对事件的列表浏览需要，展示目前的事件记录</t>
   </si>
 </sst>
 </file>
@@ -206,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -228,6 +143,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -236,6 +158,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -243,38 +202,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,76 +225,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +241,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -392,31 +307,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,151 +475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,41 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +534,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -658,13 +558,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +587,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,7 +618,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,124 +627,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
